--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56611.09587701499</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56611.09587701499</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959970310.1808623</v>
+        <v>40312179.06839099</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8875.188226396818</v>
+        <v>1014581.982625831</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16300.05659330239</v>
+        <v>1801692.632833702</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23724.49079935399</v>
+        <v>2588803.283041575</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31170.88883635053</v>
+        <v>3375921.345434073</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38617.12778975459</v>
+        <v>4163031.995641946</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46063.18471362533</v>
+        <v>4950142.645849817</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53509.51282435183</v>
+        <v>5737253.296057686</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60955.56974822257</v>
+        <v>6524363.946265554</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68401.71582941574</v>
+        <v>7311474.596473423</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75848.04394014222</v>
+        <v>8098585.246681292</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83294.28289354623</v>
+        <v>8885695.896889167</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90740.52184695026</v>
+        <v>9672806.547097044</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98186.76080035428</v>
+        <v>10459917.19730492</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105632.9997537583</v>
+        <v>11247027.8475128</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113079.2387071623</v>
+        <v>12034138.49772068</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,10 +27144,10 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
